--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515484.381852698</v>
+        <v>1511347.224602547</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>354.7058108711869</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.67788952565739</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>142.883110535909</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>79.4165396514655</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>328.4528833267051</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>35.30088773130205</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -952,19 +952,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>48.41388925471367</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172151</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>219.1488461579042</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>135.7081485520245</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>112.5565349699402</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>199.3476555291458</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6920487814951</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>22.44547853568606</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>44.30292280757659</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>11.79076481679262</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>40.67793690094159</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>186.4479095884339</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>88.27810958517533</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>146.9114582540268</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>58.47559664514451</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>44.30292280757653</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>28.54004930889326</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>212.4287627768751</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.27552175740409</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>120.1447214650588</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>70.0455488112438</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>131.5907017407196</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1963.454355030168</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C2" t="n">
-        <v>1594.491838089756</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="D2" t="n">
-        <v>1236.226139483006</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>507.0302131322571</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>91.32546285654593</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>91.32546285654593</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>2353.59368700598</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1963.454355030168</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4109910936369</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251085</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342.4631083446094</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>342.4631083446094</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W4" t="n">
-        <v>570.4526592426267</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X4" t="n">
-        <v>342.4631083446094</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>342.4631083446094</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1545.062936918765</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="C5" t="n">
-        <v>1176.100419978353</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="D5" t="n">
-        <v>1176.100419978353</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>868.3229468790025</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>457.337042089395</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918765</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1545.062936918765</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.062936918765</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>143.6627691908467</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844936</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>565.1427566090754</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>565.1427566090754</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>415.0261171967396</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>415.0261171967396</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>268.1361696988292</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>100.1497050071078</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4725,7 +4725,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070927</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>565.1427566090754</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.1427566090754</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1726.546868009079</v>
+        <v>934.6665353554974</v>
       </c>
       <c r="C8" t="n">
-        <v>1357.584351068668</v>
+        <v>565.7040184150858</v>
       </c>
       <c r="D8" t="n">
-        <v>999.3186524619173</v>
+        <v>565.7040184150858</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>565.7040184150858</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>558.7585176658823</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.012626270159</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1726.546868009079</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1726.546868009079</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080694</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.393271046731</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.8411572468201</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>451.9049743189132</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1420.169243923473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1420.169243923473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1131.050906427311</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.050906427311</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>841.6337363903502</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>841.6337363903502</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>620.8411572468201</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5038,37 +5038,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1232.340097437561</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1004.350546539543</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>783.5579673960132</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1643.635426776346</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1354.218256739386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
@@ -5539,16 +5539,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510509</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5837,16 +5837,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.843151638089</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683287</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3838.083511855032</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4389.993242094319</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>265.0731740618515</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499465</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4475.392036273191</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4255.790571296132</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3966.71534464033</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3712.030856434443</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3422.613686397483</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3194.624135499465</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.624135499465</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>996.5276398439761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>827.5914569160692</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>677.4748175037334</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>529.5617239213403</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1178.176104674216</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6794,7 +6794,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3200.825397924057</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>3031.88921499615</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583814</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001421</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4594.95911601575</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4375.357651038691</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4375.357651038691</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>4120.673162832804</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>3831.255992795844</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.266441897827</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>3382.473862754297</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7025,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7262,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098242</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819173</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695815</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640064</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3195.647281583949</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C43" t="n">
-        <v>3026.711098656042</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D43" t="n">
-        <v>2876.594459243707</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661314</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.932614305901</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>4370.179534698584</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V43" t="n">
-        <v>4115.495046492697</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W43" t="n">
-        <v>3826.077876455736</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X43" t="n">
-        <v>3598.088325557719</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y43" t="n">
-        <v>3377.295746414189</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2246.997479084462</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2027.396014107403</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1738.320787451601</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1483.636299245714</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.219129208753</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>966.2295783107356</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>224.3355197601774</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>138.9393975111059</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>30.36925650589434</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>231.2582814363239</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>21.89339468985682</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>87.17534280744516</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>32.89260457059967</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>144.8013425629418</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>207.8347205162514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>213.9188905722445</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>126.5688841976862</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>30.95754073885439</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>77.24602870709352</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1148277476178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>167.2340587438926</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>101.1181252153547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>152.4862366927513</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>39.70888054695294</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>114.1584408891651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>216.1389255780003</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>49.43558426092503</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013805</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707338</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707332</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26527,43 +26527,43 @@
         <v>288303.6068937073</v>
       </c>
       <c r="D6" t="n">
-        <v>288303.6068937073</v>
+        <v>288303.6068937075</v>
       </c>
       <c r="E6" t="n">
-        <v>-111038.7711389067</v>
+        <v>-111386.1503932638</v>
       </c>
       <c r="F6" t="n">
-        <v>396446.6704856391</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="G6" t="n">
-        <v>396446.6704856393</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="H6" t="n">
-        <v>396446.6704856393</v>
+        <v>396099.2912312821</v>
       </c>
       <c r="I6" t="n">
-        <v>396446.6704856394</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="J6" t="n">
-        <v>228841.4926756566</v>
+        <v>228494.1134212996</v>
       </c>
       <c r="K6" t="n">
-        <v>396446.6704856392</v>
+        <v>396099.2912312822</v>
       </c>
       <c r="L6" t="n">
-        <v>396446.6704856391</v>
+        <v>396099.2912312821</v>
       </c>
       <c r="M6" t="n">
-        <v>263839.3767567125</v>
+        <v>263491.9975023555</v>
       </c>
       <c r="N6" t="n">
-        <v>396446.6704856393</v>
+        <v>396099.2912312823</v>
       </c>
       <c r="O6" t="n">
-        <v>396446.6704856393</v>
+        <v>396099.2912312822</v>
       </c>
       <c r="P6" t="n">
-        <v>396446.6704856394</v>
+        <v>396099.2912312823</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26798,13 +26798,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>27.22455920107484</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>26.0320231468131</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>5.732362482303387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.14103276810813</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>53.47748674555663</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>376.2468150416519</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>98.83761990041521</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>162.7815239143576</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>275.8395542209295</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>82.10592539179733</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>198.560797075695</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>472.97362791687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>173.3851399586643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>302.9675447508045</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>410.9230160036622</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34792,7 +34792,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>93.34947739681176</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>528.938642074174</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9556134883069083</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>55.96455263125056</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>330.3773834724256</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770453</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>31.25110603664601</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287862</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1511347.224602547</v>
+        <v>1513107.754905333</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>42.68052496925104</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>39.67788952565739</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.4165396514655</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.50612826256102</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>35.30088773130205</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>106.5125558626479</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -955,7 +955,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172151</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>135.7081485520245</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>256.041446662114</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542791</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.69811547110045</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>86.90598908794107</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.6920487814951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>22.44547853568606</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>93.62264337260652</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>11.79076481679262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4479095884339</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>143.7533552439557</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>58.47559664514451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>135.5334195528337</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>129.1078928223853</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>32.2604189624957</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>95.81917536083697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.1447214650588</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218646</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218646</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218646</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218646</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>507.0302131322571</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>91.32546285654593</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>91.32546285654593</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218646</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.2467865680031</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1254.111199477247</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C5" t="n">
-        <v>1254.111199477247</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1254.111199477247</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>868.3229468790025</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>457.337042089395</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2454.750888134854</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2246.005246740678</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="X5" t="n">
-        <v>1644.250531453059</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1254.111199477247</v>
+        <v>1992.424186004858</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>143.6627691908467</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>423.1489515180659</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508757</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105702</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4716,16 +4716,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.6665353554974</v>
+        <v>394.8580066177505</v>
       </c>
       <c r="C8" t="n">
-        <v>565.7040184150858</v>
+        <v>394.8580066177505</v>
       </c>
       <c r="D8" t="n">
-        <v>565.7040184150858</v>
+        <v>394.8580066177505</v>
       </c>
       <c r="E8" t="n">
-        <v>565.7040184150858</v>
+        <v>394.8580066177505</v>
       </c>
       <c r="F8" t="n">
-        <v>558.7585176658823</v>
+        <v>387.912505868547</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>376.24815963324</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>1897.831592188878</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>1545.062936918764</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395431</v>
+        <v>1171.597178657684</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.266375419619</v>
+        <v>781.4578466818723</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>370.2996089082457</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.83186202288</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1290.147373816993</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>772.7406528820155</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>551.9480737384854</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2109.278718126011</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3164745246301</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.7575184984</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.96493935487</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2051.857136150238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1762.781909494436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1508.097421288549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1218.680251251588</v>
       </c>
       <c r="X28" t="n">
-        <v>1152.263640121936</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y28" t="n">
-        <v>931.4710609784063</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576781</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>414.4022433768874</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782887</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038273</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797674</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235158</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258099</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602297</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.74706939641</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359449</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614319</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>983.3403484614319</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.829365488567</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>883.8931825606599</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>733.7765431483241</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>585.863449565931</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>438.9735020680206</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2227.361618603201</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.677130397314</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.259960360354</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.270409462336</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.477830318806</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7630,31 +7630,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138.9393975111059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>21.89339468985728</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>30.36925650589434</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>193.3273467878356</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>130.4994612393472</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.89260457059967</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>144.8013425629418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>30.95754073885439</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>73.65209508333257</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>167.2340587438926</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>31.71340154579417</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>36.41624546988359</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>147.5715612194416</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.37941682721006</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013805</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707406</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
@@ -26456,7 +26456,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-826448.1766822122</v>
+        <v>-826448.176682212</v>
       </c>
       <c r="C6" t="n">
-        <v>288303.6068937073</v>
+        <v>288303.6068937075</v>
       </c>
       <c r="D6" t="n">
         <v>288303.6068937075</v>
       </c>
       <c r="E6" t="n">
-        <v>-111386.1503932638</v>
+        <v>-111073.5090643429</v>
       </c>
       <c r="F6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602038</v>
       </c>
       <c r="G6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602037</v>
       </c>
       <c r="H6" t="n">
-        <v>396099.2912312821</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="I6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="J6" t="n">
-        <v>228494.1134212996</v>
+        <v>228806.7547502209</v>
       </c>
       <c r="K6" t="n">
-        <v>396099.2912312822</v>
+        <v>396411.9325602037</v>
       </c>
       <c r="L6" t="n">
-        <v>396099.2912312821</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="M6" t="n">
-        <v>263491.9975023555</v>
+        <v>263804.6388312767</v>
       </c>
       <c r="N6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.932560204</v>
       </c>
       <c r="O6" t="n">
-        <v>396099.2912312822</v>
+        <v>396411.9325602036</v>
       </c>
       <c r="P6" t="n">
-        <v>396099.2912312823</v>
+        <v>396411.9325602036</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996103</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996103</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996103</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>339.2498451030107</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.0320231468131</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.14103276810813</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.631515061267</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>376.2468150416519</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>16.93965953614645</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193759</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>275.8395542209295</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>44.97710590029141</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386501002</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-4.69252986170444e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -31281,46 +31281,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31536,7 +31536,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31606,22 +31606,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31688,10 +31688,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31706,13 +31706,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31840,10 +31840,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34792,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3640795072288</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.9556134883073677</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>93.34947739681176</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839585</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35184,7 +35184,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,10 +35263,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35339,7 +35339,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35348,7 +35348,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35488,10 +35488,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.300110790297</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,13 +36366,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294635</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
